--- a/results/daily/medium_window_30days.xlsx
+++ b/results/daily/medium_window_30days.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>y_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>x_number_of_days_before_delivery</t>
         </is>
@@ -482,9 +487,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8417038321495056</v>
+        <v>0.0003445521579124033</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9996554478420876</v>
+      </c>
+      <c r="H2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -499,15 +507,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5591739416122437</v>
+        <v>0.04858942329883575</v>
       </c>
       <c r="G3" t="n">
+        <v>0.9514105767011642</v>
+      </c>
+      <c r="H3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -528,9 +539,12 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8402048945426941</v>
+        <v>0.09596191346645355</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9040380865335464</v>
+      </c>
+      <c r="H4" t="n">
         <v>23</v>
       </c>
     </row>
@@ -545,15 +559,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6766200065612793</v>
+        <v>0.05844385921955109</v>
       </c>
       <c r="G5" t="n">
+        <v>0.9415561407804489</v>
+      </c>
+      <c r="H5" t="n">
         <v>11</v>
       </c>
     </row>
@@ -574,9 +591,12 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8361082077026367</v>
+        <v>0.2165268361568451</v>
       </c>
       <c r="G6" t="n">
+        <v>0.7834731638431549</v>
+      </c>
+      <c r="H6" t="n">
         <v>16</v>
       </c>
     </row>
@@ -597,9 +617,12 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9321667701005936</v>
+        <v>7.427539912896464e-06</v>
       </c>
       <c r="G7" t="n">
+        <v>0.9999925724600871</v>
+      </c>
+      <c r="H7" t="n">
         <v>23</v>
       </c>
     </row>
@@ -620,9 +643,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5754372179508209</v>
+        <v>0.1779849082231522</v>
       </c>
       <c r="G8" t="n">
+        <v>0.8220150917768478</v>
+      </c>
+      <c r="H8" t="n">
         <v>16</v>
       </c>
     </row>
@@ -643,9 +669,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8491461873054504</v>
+        <v>0.002740159863606095</v>
       </c>
       <c r="G9" t="n">
+        <v>0.9972598401363939</v>
+      </c>
+      <c r="H9" t="n">
         <v>17</v>
       </c>
     </row>
@@ -666,9 +695,12 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7179201543331146</v>
+        <v>0.2102665603160858</v>
       </c>
       <c r="G10" t="n">
+        <v>0.7897334396839142</v>
+      </c>
+      <c r="H10" t="n">
         <v>22</v>
       </c>
     </row>
@@ -689,9 +721,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6038908660411835</v>
+        <v>0.01486135926097631</v>
       </c>
       <c r="G11" t="n">
+        <v>0.9851386407390237</v>
+      </c>
+      <c r="H11" t="n">
         <v>32</v>
       </c>
     </row>
@@ -712,9 +747,12 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5735772550106049</v>
+        <v>0.1543480455875397</v>
       </c>
       <c r="G12" t="n">
+        <v>0.8456519544124603</v>
+      </c>
+      <c r="H12" t="n">
         <v>17</v>
       </c>
     </row>
@@ -735,9 +773,12 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8570377230644226</v>
+        <v>0.03090901672840118</v>
       </c>
       <c r="G13" t="n">
+        <v>0.9690909832715988</v>
+      </c>
+      <c r="H13" t="n">
         <v>26</v>
       </c>
     </row>
@@ -752,15 +793,18 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5358075499534607</v>
+        <v>0.03197981789708138</v>
       </c>
       <c r="G14" t="n">
+        <v>0.9680201821029186</v>
+      </c>
+      <c r="H14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -781,9 +825,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.895970992743969</v>
+        <v>0.004953151103109121</v>
       </c>
       <c r="G15" t="n">
+        <v>0.9950468488968909</v>
+      </c>
+      <c r="H15" t="n">
         <v>28</v>
       </c>
     </row>
@@ -804,9 +851,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9789004996418953</v>
+        <v>0.005091014783829451</v>
       </c>
       <c r="G16" t="n">
+        <v>0.9949089852161705</v>
+      </c>
+      <c r="H16" t="n">
         <v>20</v>
       </c>
     </row>
@@ -827,9 +877,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8263289928436279</v>
+        <v>0.001201205188408494</v>
       </c>
       <c r="G17" t="n">
+        <v>0.9987987948115915</v>
+      </c>
+      <c r="H17" t="n">
         <v>18</v>
       </c>
     </row>
@@ -850,9 +903,12 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5755246579647064</v>
+        <v>0.07124070823192596</v>
       </c>
       <c r="G18" t="n">
+        <v>0.928759291768074</v>
+      </c>
+      <c r="H18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -873,9 +929,12 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6833561360836029</v>
+        <v>0.03490566462278366</v>
       </c>
       <c r="G19" t="n">
+        <v>0.9650943353772163</v>
+      </c>
+      <c r="H19" t="n">
         <v>17</v>
       </c>
     </row>
@@ -896,9 +955,12 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5664100348949432</v>
+        <v>0.2402790784835815</v>
       </c>
       <c r="G20" t="n">
+        <v>0.7597209215164185</v>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -919,9 +981,12 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.850023478269577</v>
+        <v>0.01826474443078041</v>
       </c>
       <c r="G21" t="n">
+        <v>0.9817352555692196</v>
+      </c>
+      <c r="H21" t="n">
         <v>19</v>
       </c>
     </row>
@@ -942,9 +1007,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9841591510921717</v>
+        <v>0.0003713578043971211</v>
       </c>
       <c r="G22" t="n">
+        <v>0.9996286421956029</v>
+      </c>
+      <c r="H22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -965,9 +1033,12 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9361369237303734</v>
+        <v>0.000210241210879758</v>
       </c>
       <c r="G23" t="n">
+        <v>0.9997897587891202</v>
+      </c>
+      <c r="H23" t="n">
         <v>26</v>
       </c>
     </row>
@@ -988,9 +1059,12 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8446028828620911</v>
+        <v>0.0140394875779748</v>
       </c>
       <c r="G24" t="n">
+        <v>0.9859605124220252</v>
+      </c>
+      <c r="H24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1011,9 +1085,12 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7158162593841553</v>
+        <v>0.005207767244428396</v>
       </c>
       <c r="G25" t="n">
+        <v>0.9947922327555716</v>
+      </c>
+      <c r="H25" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1034,9 +1111,12 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6945735514163971</v>
+        <v>0.08022604137659073</v>
       </c>
       <c r="G26" t="n">
+        <v>0.9197739586234093</v>
+      </c>
+      <c r="H26" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1057,9 +1137,12 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9488621540367603</v>
+        <v>0.0001461458887206391</v>
       </c>
       <c r="G27" t="n">
+        <v>0.9998538541112794</v>
+      </c>
+      <c r="H27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1080,9 +1163,12 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9167623817920685</v>
+        <v>0.03062249161303043</v>
       </c>
       <c r="G28" t="n">
+        <v>0.9693775083869696</v>
+      </c>
+      <c r="H28" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1103,9 +1189,12 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8024057894945145</v>
+        <v>0.0009666194091551006</v>
       </c>
       <c r="G29" t="n">
+        <v>0.9990333805908449</v>
+      </c>
+      <c r="H29" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1126,9 +1215,12 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7170159816741943</v>
+        <v>0.9968365430831909</v>
       </c>
       <c r="G30" t="n">
+        <v>0.9968365430831909</v>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1149,9 +1241,12 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8086159229278564</v>
+        <v>0.911886990070343</v>
       </c>
       <c r="G31" t="n">
+        <v>0.911886990070343</v>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1166,15 +1261,18 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6987834572792053</v>
+        <v>0.8936682939529419</v>
       </c>
       <c r="G32" t="n">
+        <v>0.8936682939529419</v>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1195,9 +1293,12 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9949930310249329</v>
+        <v>0.9967331886291504</v>
       </c>
       <c r="G33" t="n">
+        <v>0.9967331886291504</v>
+      </c>
+      <c r="H33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1218,9 +1319,12 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8741106390953064</v>
+        <v>0.9999527931213379</v>
       </c>
       <c r="G34" t="n">
+        <v>0.9999527931213379</v>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1241,9 +1345,12 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9493557214736938</v>
+        <v>0.9984814524650574</v>
       </c>
       <c r="G35" t="n">
+        <v>0.9984814524650574</v>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1264,9 +1371,12 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9407069087028503</v>
+        <v>0.9937570095062256</v>
       </c>
       <c r="G36" t="n">
+        <v>0.9937570095062256</v>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1287,9 +1397,12 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9359931349754333</v>
+        <v>0.9970390796661377</v>
       </c>
       <c r="G37" t="n">
+        <v>0.9970390796661377</v>
+      </c>
+      <c r="H37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1304,15 +1417,18 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8127042204141617</v>
+        <v>0.9995328187942505</v>
       </c>
       <c r="G38" t="n">
+        <v>0.9995328187942505</v>
+      </c>
+      <c r="H38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1333,9 +1449,12 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9065125584602356</v>
+        <v>0.9770684242248535</v>
       </c>
       <c r="G39" t="n">
+        <v>0.9770684242248535</v>
+      </c>
+      <c r="H39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,15 +1469,18 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6190096437931061</v>
+        <v>0.9997770190238953</v>
       </c>
       <c r="G40" t="n">
+        <v>0.9997770190238953</v>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1379,9 +1501,12 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7646787166595459</v>
+        <v>0.9950116872787476</v>
       </c>
       <c r="G41" t="n">
+        <v>0.9950116872787476</v>
+      </c>
+      <c r="H41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1402,9 +1527,12 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9584410786628723</v>
+        <v>0.9974061846733093</v>
       </c>
       <c r="G42" t="n">
+        <v>0.9974061846733093</v>
+      </c>
+      <c r="H42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1425,9 +1553,12 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9460647702217102</v>
+        <v>0.9999990463256836</v>
       </c>
       <c r="G43" t="n">
+        <v>0.9999990463256836</v>
+      </c>
+      <c r="H43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1448,9 +1579,12 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9584684371948242</v>
+        <v>0.9970093965530396</v>
       </c>
       <c r="G44" t="n">
+        <v>0.9970093965530396</v>
+      </c>
+      <c r="H44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1471,9 +1605,12 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8287050127983093</v>
+        <v>0.9424479007720947</v>
       </c>
       <c r="G45" t="n">
+        <v>0.9424479007720947</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1494,9 +1631,12 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7533583045005798</v>
+        <v>0.9595211744308472</v>
       </c>
       <c r="G46" t="n">
+        <v>0.9595211744308472</v>
+      </c>
+      <c r="H46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1517,9 +1657,12 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7454710006713867</v>
+        <v>0.9996935129165649</v>
       </c>
       <c r="G47" t="n">
+        <v>0.9996935129165649</v>
+      </c>
+      <c r="H47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1540,9 +1683,12 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9021804928779602</v>
+        <v>0.9516482353210449</v>
       </c>
       <c r="G48" t="n">
+        <v>0.9516482353210449</v>
+      </c>
+      <c r="H48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1563,9 +1709,12 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9910324215888977</v>
+        <v>0.9999990463256836</v>
       </c>
       <c r="G49" t="n">
+        <v>0.9999990463256836</v>
+      </c>
+      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1586,9 +1735,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5097512602806091</v>
+        <v>0.9858536720275879</v>
       </c>
       <c r="G50" t="n">
+        <v>0.9858536720275879</v>
+      </c>
+      <c r="H50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1603,15 +1755,18 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5005193948745728</v>
+        <v>0.988415002822876</v>
       </c>
       <c r="G51" t="n">
+        <v>0.988415002822876</v>
+      </c>
+      <c r="H51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1632,9 +1787,12 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6801625490188599</v>
+        <v>0.9956352114677429</v>
       </c>
       <c r="G52" t="n">
+        <v>0.9956352114677429</v>
+      </c>
+      <c r="H52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1655,9 +1813,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7330529093742371</v>
+        <v>0.9087783098220825</v>
       </c>
       <c r="G53" t="n">
+        <v>0.9087783098220825</v>
+      </c>
+      <c r="H53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1678,9 +1839,12 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7777148485183716</v>
+        <v>0.9901818633079529</v>
       </c>
       <c r="G54" t="n">
+        <v>0.9901818633079529</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1701,9 +1865,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8788599371910095</v>
+        <v>0.9523438215255737</v>
       </c>
       <c r="G55" t="n">
+        <v>0.9523438215255737</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1724,9 +1891,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9844748973846436</v>
+        <v>0.999998927116394</v>
       </c>
       <c r="G56" t="n">
+        <v>0.999998927116394</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1741,15 +1911,18 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6318153142929077</v>
+        <v>0.9762973785400391</v>
       </c>
       <c r="G57" t="n">
+        <v>0.9762973785400391</v>
+      </c>
+      <c r="H57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,9 +1943,12 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9072506427764893</v>
+        <v>0.9032106995582581</v>
       </c>
       <c r="G58" t="n">
+        <v>0.9032106995582581</v>
+      </c>
+      <c r="H58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1793,9 +1969,12 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9830135703086853</v>
+        <v>0.9561643600463867</v>
       </c>
       <c r="G59" t="n">
+        <v>0.9561643600463867</v>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1816,9 +1995,12 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.987206757068634</v>
+        <v>0.9934005737304688</v>
       </c>
       <c r="G60" t="n">
+        <v>0.9934005737304688</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1833,15 +2015,18 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6140969097614288</v>
+        <v>0.5560033321380615</v>
       </c>
       <c r="G61" t="n">
+        <v>0.5560033321380615</v>
+      </c>
+      <c r="H61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1862,9 +2047,12 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9825307726860046</v>
+        <v>0.9991733431816101</v>
       </c>
       <c r="G62" t="n">
+        <v>0.9991733431816101</v>
+      </c>
+      <c r="H62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1885,9 +2073,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9427550435066223</v>
+        <v>0.8862836360931396</v>
       </c>
       <c r="G63" t="n">
+        <v>0.8862836360931396</v>
+      </c>
+      <c r="H63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1908,9 +2099,12 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.959588885307312</v>
+        <v>0.9977627992630005</v>
       </c>
       <c r="G64" t="n">
+        <v>0.9977627992630005</v>
+      </c>
+      <c r="H64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1925,15 +2119,18 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7038607597351074</v>
+        <v>0.9278970956802368</v>
       </c>
       <c r="G65" t="n">
+        <v>0.9278970956802368</v>
+      </c>
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1954,9 +2151,12 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9286006689071655</v>
+        <v>0.9936830997467041</v>
       </c>
       <c r="G66" t="n">
+        <v>0.9936830997467041</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1977,9 +2177,12 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7065902352333069</v>
+        <v>0.9861406087875366</v>
       </c>
       <c r="G67" t="n">
+        <v>0.9861406087875366</v>
+      </c>
+      <c r="H67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2000,9 +2203,12 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9582107663154602</v>
+        <v>0.999982476234436</v>
       </c>
       <c r="G68" t="n">
+        <v>0.999982476234436</v>
+      </c>
+      <c r="H68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2023,9 +2229,12 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9974556565284729</v>
+        <v>0.9999316930770874</v>
       </c>
       <c r="G69" t="n">
+        <v>0.9999316930770874</v>
+      </c>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2046,9 +2255,12 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7240001559257507</v>
+        <v>0.9280267953872681</v>
       </c>
       <c r="G70" t="n">
+        <v>0.9280267953872681</v>
+      </c>
+      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2069,9 +2281,12 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8852460980415344</v>
+        <v>0.9896915555000305</v>
       </c>
       <c r="G71" t="n">
+        <v>0.9896915555000305</v>
+      </c>
+      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2092,9 +2307,12 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9804701209068298</v>
+        <v>0.9998161196708679</v>
       </c>
       <c r="G72" t="n">
+        <v>0.9998161196708679</v>
+      </c>
+      <c r="H72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2109,15 +2327,18 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5060613751411438</v>
+        <v>0.9995713829994202</v>
       </c>
       <c r="G73" t="n">
+        <v>0.9995713829994202</v>
+      </c>
+      <c r="H73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2138,9 +2359,12 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8209086060523987</v>
+        <v>0.9932342171669006</v>
       </c>
       <c r="G74" t="n">
+        <v>0.9932342171669006</v>
+      </c>
+      <c r="H74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2161,9 +2385,12 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7521218061447144</v>
+        <v>0.9887202382087708</v>
       </c>
       <c r="G75" t="n">
+        <v>0.9887202382087708</v>
+      </c>
+      <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2184,9 +2411,12 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.933735728263855</v>
+        <v>0.6719057559967041</v>
       </c>
       <c r="G76" t="n">
+        <v>0.6719057559967041</v>
+      </c>
+      <c r="H76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2207,9 +2437,12 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9083354473114014</v>
+        <v>0.9985820055007935</v>
       </c>
       <c r="G77" t="n">
+        <v>0.9985820055007935</v>
+      </c>
+      <c r="H77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2230,9 +2463,12 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8489471673965454</v>
+        <v>0.9999436140060425</v>
       </c>
       <c r="G78" t="n">
+        <v>0.9999436140060425</v>
+      </c>
+      <c r="H78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2253,9 +2489,12 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9630692005157471</v>
+        <v>0.9666928648948669</v>
       </c>
       <c r="G79" t="n">
+        <v>0.9666928648948669</v>
+      </c>
+      <c r="H79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2276,9 +2515,12 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9285442233085632</v>
+        <v>0.9942336678504944</v>
       </c>
       <c r="G80" t="n">
+        <v>0.9942336678504944</v>
+      </c>
+      <c r="H80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2299,9 +2541,12 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6770561933517456</v>
+        <v>0.8757309913635254</v>
       </c>
       <c r="G81" t="n">
+        <v>0.8757309913635254</v>
+      </c>
+      <c r="H81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2322,9 +2567,12 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8287243247032166</v>
+        <v>0.9928238391876221</v>
       </c>
       <c r="G82" t="n">
+        <v>0.9928238391876221</v>
+      </c>
+      <c r="H82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2345,9 +2593,12 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8240335583686829</v>
+        <v>0.9929284453392029</v>
       </c>
       <c r="G83" t="n">
+        <v>0.9929284453392029</v>
+      </c>
+      <c r="H83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2368,9 +2619,12 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9922858476638794</v>
+        <v>0.6691874861717224</v>
       </c>
       <c r="G84" t="n">
+        <v>0.6691874861717224</v>
+      </c>
+      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2391,9 +2645,12 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8191744685173035</v>
+        <v>0.9999018907546997</v>
       </c>
       <c r="G85" t="n">
+        <v>0.9999018907546997</v>
+      </c>
+      <c r="H85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2414,9 +2671,12 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9935711622238159</v>
+        <v>0.9999985694885254</v>
       </c>
       <c r="G86" t="n">
+        <v>0.9999985694885254</v>
+      </c>
+      <c r="H86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2431,15 +2691,18 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6463226079940796</v>
+        <v>0.5885196328163147</v>
       </c>
       <c r="G87" t="n">
+        <v>0.5885196328163147</v>
+      </c>
+      <c r="H87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2460,9 +2723,12 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6902608871459961</v>
+        <v>0.8760970234870911</v>
       </c>
       <c r="G88" t="n">
+        <v>0.8760970234870911</v>
+      </c>
+      <c r="H88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2483,9 +2749,12 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.989052951335907</v>
+        <v>0.9999994039535522</v>
       </c>
       <c r="G89" t="n">
+        <v>0.9999994039535522</v>
+      </c>
+      <c r="H89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2506,9 +2775,12 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6942213177680969</v>
+        <v>0.8550640344619751</v>
       </c>
       <c r="G90" t="n">
+        <v>0.8550640344619751</v>
+      </c>
+      <c r="H90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2523,15 +2795,18 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5509955585002899</v>
+        <v>0.8856189846992493</v>
       </c>
       <c r="G91" t="n">
+        <v>0.8856189846992493</v>
+      </c>
+      <c r="H91" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2552,9 +2827,12 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9088653326034546</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2575,9 +2853,12 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9995318964065518</v>
+        <v>0.0001292093947995454</v>
       </c>
       <c r="G93" t="n">
+        <v>0.9998707906052005</v>
+      </c>
+      <c r="H93" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2598,9 +2879,12 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8922978490591049</v>
+        <v>5.191288323658227e-07</v>
       </c>
       <c r="G94" t="n">
+        <v>0.9999994808711676</v>
+      </c>
+      <c r="H94" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2621,9 +2905,12 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7803747206926346</v>
+        <v>6.442182893806603e-06</v>
       </c>
       <c r="G95" t="n">
+        <v>0.9999935578171062</v>
+      </c>
+      <c r="H95" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2644,9 +2931,12 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.85450279712677</v>
+        <v>0.9574225544929504</v>
       </c>
       <c r="G96" t="n">
+        <v>0.9574225544929504</v>
+      </c>
+      <c r="H96" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2661,15 +2951,18 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6049884259700775</v>
+        <v>0.7417294979095459</v>
       </c>
       <c r="G97" t="n">
+        <v>0.7417294979095459</v>
+      </c>
+      <c r="H97" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2690,9 +2983,12 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.934013307094574</v>
+        <v>0.9999773502349854</v>
       </c>
       <c r="G98" t="n">
+        <v>0.9999773502349854</v>
+      </c>
+      <c r="H98" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2707,15 +3003,18 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8078799843788147</v>
+        <v>0.01634429022669792</v>
       </c>
       <c r="G99" t="n">
+        <v>0.9836557097733021</v>
+      </c>
+      <c r="H99" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2730,15 +3029,18 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5859606266021729</v>
+        <v>0.6241418123245239</v>
       </c>
       <c r="G100" t="n">
+        <v>0.6241418123245239</v>
+      </c>
+      <c r="H100" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2759,9 +3061,12 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8197508901357651</v>
+        <v>0.01469389069825411</v>
       </c>
       <c r="G101" t="n">
+        <v>0.9853061093017459</v>
+      </c>
+      <c r="H101" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2782,9 +3087,12 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9453592114150524</v>
+        <v>0.08625086396932602</v>
       </c>
       <c r="G102" t="n">
+        <v>0.913749136030674</v>
+      </c>
+      <c r="H102" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2799,15 +3107,18 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8902465254068375</v>
+        <v>0.9998745918273926</v>
       </c>
       <c r="G103" t="n">
+        <v>0.9998745918273926</v>
+      </c>
+      <c r="H103" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2822,15 +3133,18 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9182455465197563</v>
+        <v>0.9996360540390015</v>
       </c>
       <c r="G104" t="n">
+        <v>0.9996360540390015</v>
+      </c>
+      <c r="H104" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2851,9 +3165,12 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.880523681640625</v>
+        <v>0.7784985303878784</v>
       </c>
       <c r="G105" t="n">
+        <v>0.7784985303878784</v>
+      </c>
+      <c r="H105" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2874,9 +3191,12 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9103409647941589</v>
+        <v>0.9813050627708435</v>
       </c>
       <c r="G106" t="n">
+        <v>0.9813050627708435</v>
+      </c>
+      <c r="H106" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2897,9 +3217,12 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6146053075790405</v>
+        <v>0.9999607801437378</v>
       </c>
       <c r="G107" t="n">
+        <v>0.9999607801437378</v>
+      </c>
+      <c r="H107" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2920,9 +3243,12 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5924850702285767</v>
+        <v>0.998206615447998</v>
       </c>
       <c r="G108" t="n">
+        <v>0.998206615447998</v>
+      </c>
+      <c r="H108" t="n">
         <v>29</v>
       </c>
     </row>
